--- a/biology/Médecine/Václav_Treitz/Václav_Treitz.xlsx
+++ b/biology/Médecine/Václav_Treitz/Václav_Treitz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A1clav_Treitz</t>
+          <t>Václav_Treitz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Václav Treitz, également Wenzel Treitz (9 avril 1819 - 27 août 1872) est un pathologiste bohémien originaire d'Hostomice, en royaume de Bohême.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A1clav_Treitz</t>
+          <t>Václav_Treitz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la médecine à Prague et effectue des études supérieures à Vienne avec Joseph Hyrtl (1810–1894). Par la suite, il pratique la médecine à l'Université Jagellonian de Cracovie, retournant à Prague en 1855, où il devient professeur et directeur de l'institut d'anatomie pathologique.
 Tout au long de sa carrière, Treitz est une figure de la lutte pour le nationalisme tchèque.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A1clav_Treitz</t>
+          <t>Václav_Treitz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Structures nommées en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Treitz est connu pour sa description en 1853 du muscle suspenseur du duodénum (musculus suspensorius duodeni), plus tard nommé « ligament de Treitz » (également connu sous le nom de muscle de Treitz). Ce ligament est une structure fibreuse par laquelle la jonction duodénojéjunale est fixée au diaphragme[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Treitz est connu pour sa description en 1853 du muscle suspenseur du duodénum (musculus suspensorius duodeni), plus tard nommé « ligament de Treitz » (également connu sous le nom de muscle de Treitz). Ce ligament est une structure fibreuse par laquelle la jonction duodénojéjunale est fixée au diaphragme.
 Mais son nom est associé à plusieurs autres structures anatomiques :
 l'angle de Treitz : délimite la fin du duodénum et le début du jéjunum ;
 l'arc de Treitz (plica paraduodenalis ou pli paraduodénal) : un pli en forme de faucille du péritoine qui forme la limite antérieure du renfoncement paraduodénal ;
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>V%C3%A1clav_Treitz</t>
+          <t>Václav_Treitz</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,12 +596,14 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Informations biographiques basées sur une traduction de l'article équivalent de Wikipédia en allemand, y compris :
 (de) Julius Pagel, « Treitz, Wenzel », dans Allgemeine Deutsche Biographie (ADB), vol. 38, Leipzig, Duncker &amp; Humblot, 1894, p. 558-559
 ^ Zdeněk Václav Tobolka &amp; Václav Žáček (1952): Slovanský sjezd v Praze 1848: Sbírka dokumentú, Vol. 1. Slovanský Ústav, p. 337.
-^ [1] Review of Treitz's Muscles and their Implications in a Hemorrhoidectomy and Hemorrhoidopexy
+^  Review of Treitz's Muscles and their Implications in a Hemorrhoidectomy and Hemorrhoidopexy
 ^ Medical Dictionary Angle of Treitz
 ^ Medilexicon (definition of eponyms)
 ^ Medical definition (eponyms)
